--- a/Crowdfunding-ETL/crowdfunding.xlsx
+++ b/Crowdfunding-ETL/crowdfunding.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeinabbahsoun/Desktop/Crowdfunding-ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A79F2B-82F8-A941-9C9A-B7AD2A8BD0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9019A982-A977-3344-9FF7-54DF59128E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="980" windowWidth="28560" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="980" windowWidth="28560" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="crowdfunding_info" sheetId="1" r:id="rId1"/>
+    <sheet name="crowdfunding_info" sheetId="3" r:id="rId1"/>
     <sheet name="contact_info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -9497,11 +9497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D537E0-B0B8-C247-942B-C47B857F5857}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9510,7 +9510,6 @@
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125"/>
     <col min="14" max="14" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -53567,7 +53566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
